--- a/server/branch/protected/models/excel/example/水库模板.xlsx
+++ b/server/branch/protected/models/excel/example/水库模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="8520" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>堤坝高程(m)</t>
   </si>
@@ -136,14 +136,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>全景图</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>照片</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>管理负责人</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -161,6 +153,10 @@
   </si>
   <si>
     <t>型式</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水库</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +215,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -242,8 +238,43 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -287,20 +318,48 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="47">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -322,6 +381,8 @@
     <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
@@ -343,6 +404,8 @@
     <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -610,7 +673,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -618,168 +681,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="AB2" sqref="AB2:AC2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Y6" sqref="Y6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:31">
-      <c r="A1" s="1"/>
+    <row r="1" spans="1:29">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+    </row>
+    <row r="2" spans="1:29" s="6" customFormat="1">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2" t="s">
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2" t="s">
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="3" t="s">
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3" t="s">
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3" t="s">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="4"/>
-      <c r="AA1" s="4"/>
-      <c r="AB1" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC1" s="3"/>
-      <c r="AD1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AE1" s="3"/>
-    </row>
-    <row r="2" spans="1:31">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>27</v>
-      </c>
+      <c r="X2" s="4"/>
       <c r="Y2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="5" t="s">
+      <c r="Z2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="5" t="s">
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AB2" s="5" t="s">
+      <c r="AC2" s="4"/>
+    </row>
+    <row r="3" spans="1:29" s="6" customFormat="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q3" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AC2" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AE2" s="5" t="s">
-        <v>34</v>
+      <c r="R3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="V3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="W3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA3" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="AB1:AC1"/>
-    <mergeCell ref="AD1:AE1"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:T1"/>
-    <mergeCell ref="U1:V1"/>
+  <mergeCells count="13">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="A1:AC1"/>
+    <mergeCell ref="W2:X2"/>
+    <mergeCell ref="Z2:AA2"/>
+    <mergeCell ref="AB2:AC2"/>
+    <mergeCell ref="D2:I2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:V2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/branch/protected/models/excel/example/水库模板.xlsx
+++ b/server/branch/protected/models/excel/example/水库模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14300" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
   <si>
     <t>堤坝高程(m)</t>
   </si>
@@ -157,6 +157,30 @@
   </si>
   <si>
     <t>水库</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梯形</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高压</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdsfasaas</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>余</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -325,26 +349,8 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -355,7 +361,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -673,7 +697,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -681,181 +705,273 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC3"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y6" sqref="Y6"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AC11" sqref="AC11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="27" max="27" width="12.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+      <c r="AA1" s="9"/>
+      <c r="AB1" s="9"/>
+      <c r="AC1" s="9"/>
     </row>
-    <row r="2" spans="1:29" s="6" customFormat="1">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:29" s="1" customFormat="1">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3" t="s">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3" t="s">
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="4" t="s">
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="4"/>
-      <c r="S2" s="4"/>
-      <c r="T2" s="4"/>
-      <c r="U2" s="4" t="s">
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+      <c r="U2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="4"/>
-      <c r="W2" s="4" t="s">
+      <c r="V2" s="10"/>
+      <c r="W2" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="5" t="s">
+      <c r="X2" s="10"/>
+      <c r="Y2" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="4" t="s">
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="AC2" s="4"/>
+      <c r="AC2" s="10"/>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+    <row r="3" spans="1:29" s="1" customFormat="1">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="M3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N3" s="8" t="s">
+      <c r="N3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="8" t="s">
+      <c r="O3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="8" t="s">
+      <c r="Q3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V3" s="10" t="s">
+      <c r="V3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="9" t="s">
+      <c r="Y3" s="8"/>
+      <c r="Z3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AA3" s="9" t="s">
+      <c r="AA3" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AB3" s="9" t="s">
+      <c r="AB3" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AC3" s="9" t="s">
+      <c r="AC3" s="3" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29">
+      <c r="A4">
+        <v>111</v>
+      </c>
+      <c r="B4">
+        <v>2323</v>
+      </c>
+      <c r="C4">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>33</v>
+      </c>
+      <c r="G4">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>33</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>22</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4">
+        <v>222</v>
+      </c>
+      <c r="P4">
+        <v>33</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4">
+        <v>300.60000000000002</v>
+      </c>
+      <c r="S4">
+        <v>22</v>
+      </c>
+      <c r="T4">
+        <v>22</v>
+      </c>
+      <c r="U4">
+        <v>111</v>
+      </c>
+      <c r="V4">
+        <v>111</v>
+      </c>
+      <c r="W4">
+        <v>30</v>
+      </c>
+      <c r="X4">
+        <v>30</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4">
+        <v>15950538990</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4">
+        <v>123342342</v>
       </c>
     </row>
   </sheetData>
